--- a/mysite/apps/mpemail/config/product.xlsx
+++ b/mysite/apps/mpemail/config/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djkim\Documents\work\FingerFree\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4CE7BC-5B34-48BA-9B50-8E6D263067E9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575E74DB-8911-4297-BF31-C5350B0A449A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2302,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8499,19 +8499,19 @@
         <v>1</v>
       </c>
       <c r="G152" s="7">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="H152" s="7">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="I152" s="7">
-        <v>37000</v>
+        <v>23000</v>
       </c>
       <c r="J152" s="7">
-        <v>38000</v>
+        <v>24000</v>
       </c>
       <c r="K152" s="7">
-        <v>39000</v>
+        <v>25000</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="8"/>
@@ -8579,19 +8579,19 @@
         <v>1</v>
       </c>
       <c r="G154" s="7">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="H154" s="7">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="I154" s="7">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="J154" s="7">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="K154" s="7">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
@@ -8617,19 +8617,19 @@
         <v>1</v>
       </c>
       <c r="G155" s="7">
+        <v>15000</v>
+      </c>
+      <c r="H155" s="7">
+        <v>16000</v>
+      </c>
+      <c r="I155" s="7">
+        <v>17000</v>
+      </c>
+      <c r="J155" s="7">
         <v>18000</v>
       </c>
-      <c r="H155" s="7">
+      <c r="K155" s="7">
         <v>19000</v>
-      </c>
-      <c r="I155" s="7">
-        <v>20000</v>
-      </c>
-      <c r="J155" s="7">
-        <v>21000</v>
-      </c>
-      <c r="K155" s="7">
-        <v>22000</v>
       </c>
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
@@ -8655,19 +8655,19 @@
         <v>1</v>
       </c>
       <c r="G156" s="7">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="H156" s="7">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="I156" s="7">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="J156" s="7">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K156" s="7">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
@@ -8697,19 +8697,19 @@
         <v>1</v>
       </c>
       <c r="G157" s="7">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="H157" s="7">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="I157" s="7">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="J157" s="7">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="K157" s="7">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
@@ -8735,19 +8735,19 @@
         <v>1</v>
       </c>
       <c r="G158" s="7">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="H158" s="7">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="I158" s="7">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="J158" s="7">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="K158" s="7">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
@@ -8773,19 +8773,19 @@
         <v>1</v>
       </c>
       <c r="G159" s="7">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="H159" s="7">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="I159" s="7">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="J159" s="7">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K159" s="7">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
@@ -8815,19 +8815,19 @@
         <v>1</v>
       </c>
       <c r="G160" s="7">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="H160" s="7">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="I160" s="7">
-        <v>29000</v>
+        <v>14000</v>
       </c>
       <c r="J160" s="7">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="K160" s="7">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
@@ -8857,19 +8857,19 @@
         <v>1</v>
       </c>
       <c r="G161" s="7">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="H161" s="7">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="I161" s="7">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="J161" s="7">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="K161" s="7">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="L161" s="8"/>
       <c r="M161" s="8"/>
@@ -8895,19 +8895,19 @@
         <v>1</v>
       </c>
       <c r="G162" s="7">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="H162" s="7">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="I162" s="7">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="J162" s="7">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K162" s="7">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L162" s="8"/>
       <c r="M162" s="8"/>
@@ -8937,19 +8937,19 @@
         <v>1</v>
       </c>
       <c r="G163" s="7">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="H163" s="7">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="I163" s="7">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="J163" s="7">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="K163" s="7">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="L163" s="8"/>
       <c r="M163" s="8"/>
@@ -8979,19 +8979,19 @@
         <v>1</v>
       </c>
       <c r="G164" s="7">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="H164" s="7">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="I164" s="7">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="J164" s="7">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="K164" s="7">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="L164" s="8"/>
       <c r="M164" s="8"/>
@@ -9021,19 +9021,19 @@
         <v>1</v>
       </c>
       <c r="G165" s="7">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="H165" s="7">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="I165" s="7">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="J165" s="7">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="K165" s="7">
-        <v>27000</v>
+        <v>39000</v>
       </c>
       <c r="L165" s="8"/>
       <c r="M165" s="8"/>
@@ -9063,19 +9063,19 @@
         <v>1</v>
       </c>
       <c r="G166" s="7">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="H166" s="7">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="I166" s="7">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="J166" s="7">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="K166" s="7">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="L166" s="8"/>
       <c r="M166" s="8"/>
@@ -9105,19 +9105,19 @@
         <v>1</v>
       </c>
       <c r="G167" s="7">
+        <v>21000</v>
+      </c>
+      <c r="H167" s="7">
+        <v>22000</v>
+      </c>
+      <c r="I167" s="7">
+        <v>23000</v>
+      </c>
+      <c r="J167" s="7">
+        <v>24000</v>
+      </c>
+      <c r="K167" s="7">
         <v>25000</v>
-      </c>
-      <c r="H167" s="7">
-        <v>26000</v>
-      </c>
-      <c r="I167" s="7">
-        <v>27000</v>
-      </c>
-      <c r="J167" s="7">
-        <v>28000</v>
-      </c>
-      <c r="K167" s="7">
-        <v>29000</v>
       </c>
       <c r="L167" s="8"/>
       <c r="M167" s="8"/>
@@ -9147,19 +9147,19 @@
         <v>1</v>
       </c>
       <c r="G168" s="7">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="H168" s="7">
-        <v>36000</v>
+        <v>19000</v>
       </c>
       <c r="I168" s="7">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="J168" s="7">
-        <v>38000</v>
+        <v>21000</v>
       </c>
       <c r="K168" s="7">
-        <v>39000</v>
+        <v>22000</v>
       </c>
       <c r="L168" s="8"/>
       <c r="M168" s="8"/>
@@ -9185,19 +9185,19 @@
         <v>1</v>
       </c>
       <c r="G169" s="7">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="H169" s="7">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="I169" s="7">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="J169" s="7">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="K169" s="7">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L169" s="8"/>
       <c r="M169" s="8"/>
@@ -9227,19 +9227,19 @@
         <v>1</v>
       </c>
       <c r="G170" s="7">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="H170" s="7">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="I170" s="7">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="J170" s="7">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="K170" s="7">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L170" s="8"/>
       <c r="M170" s="8"/>
@@ -9269,19 +9269,19 @@
         <v>1</v>
       </c>
       <c r="G171" s="7">
+        <v>15000</v>
+      </c>
+      <c r="H171" s="7">
+        <v>16000</v>
+      </c>
+      <c r="I171" s="7">
+        <v>17000</v>
+      </c>
+      <c r="J171" s="7">
         <v>18000</v>
       </c>
-      <c r="H171" s="7">
+      <c r="K171" s="7">
         <v>19000</v>
-      </c>
-      <c r="I171" s="7">
-        <v>20000</v>
-      </c>
-      <c r="J171" s="7">
-        <v>21000</v>
-      </c>
-      <c r="K171" s="7">
-        <v>22000</v>
       </c>
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
@@ -9307,19 +9307,19 @@
         <v>1</v>
       </c>
       <c r="G172" s="7">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="H172" s="7">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="I172" s="7">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="J172" s="7">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K172" s="7">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
@@ -9345,19 +9345,19 @@
         <v>1</v>
       </c>
       <c r="G173" s="7">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="H173" s="7">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="I173" s="7">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="J173" s="7">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="K173" s="7">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
@@ -9385,19 +9385,19 @@
         <v>1</v>
       </c>
       <c r="G174" s="7">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="H174" s="7">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="I174" s="7">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="J174" s="7">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="K174" s="7">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="L174" s="8"/>
       <c r="M174" s="8"/>
@@ -9427,19 +9427,19 @@
         <v>1</v>
       </c>
       <c r="G175" s="7">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="H175" s="7">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="I175" s="7">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="J175" s="7">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K175" s="7">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
@@ -9465,19 +9465,19 @@
         <v>1</v>
       </c>
       <c r="G176" s="7">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="H176" s="7">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="I176" s="7">
-        <v>29000</v>
+        <v>14000</v>
       </c>
       <c r="J176" s="7">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="K176" s="7">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="L176" s="8"/>
       <c r="M176" s="8"/>
@@ -9507,19 +9507,19 @@
         <v>1</v>
       </c>
       <c r="G177" s="7">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="H177" s="7">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="I177" s="7">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="J177" s="7">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="K177" s="7">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="L177" s="8"/>
       <c r="M177" s="8"/>
@@ -9545,19 +9545,19 @@
         <v>1</v>
       </c>
       <c r="G178" s="7">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="H178" s="7">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="I178" s="7">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="J178" s="7">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K178" s="7">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L178" s="8"/>
       <c r="M178" s="8"/>
@@ -9587,19 +9587,19 @@
         <v>1</v>
       </c>
       <c r="G179" s="7">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="H179" s="7">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="I179" s="7">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="J179" s="7">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="K179" s="7">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="L179" s="8"/>
       <c r="M179" s="8"/>
@@ -9625,19 +9625,19 @@
         <v>1</v>
       </c>
       <c r="G180" s="7">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="H180" s="7">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="I180" s="7">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="J180" s="7">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="K180" s="7">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="L180" s="8"/>
       <c r="M180" s="8"/>
@@ -9663,19 +9663,19 @@
         <v>1</v>
       </c>
       <c r="G181" s="7">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="H181" s="7">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="I181" s="7">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="J181" s="7">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="K181" s="7">
-        <v>27000</v>
+        <v>39000</v>
       </c>
       <c r="L181" s="8"/>
       <c r="M181" s="8"/>
@@ -9701,19 +9701,19 @@
         <v>1</v>
       </c>
       <c r="G182" s="7">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="H182" s="7">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="I182" s="7">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="J182" s="7">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="K182" s="7">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="L182" s="8"/>
       <c r="M182" s="8"/>
@@ -9739,19 +9739,19 @@
         <v>1</v>
       </c>
       <c r="G183" s="7">
+        <v>21000</v>
+      </c>
+      <c r="H183" s="7">
+        <v>22000</v>
+      </c>
+      <c r="I183" s="7">
+        <v>23000</v>
+      </c>
+      <c r="J183" s="7">
+        <v>24000</v>
+      </c>
+      <c r="K183" s="7">
         <v>25000</v>
-      </c>
-      <c r="H183" s="7">
-        <v>26000</v>
-      </c>
-      <c r="I183" s="7">
-        <v>27000</v>
-      </c>
-      <c r="J183" s="7">
-        <v>28000</v>
-      </c>
-      <c r="K183" s="7">
-        <v>29000</v>
       </c>
       <c r="L183" s="8"/>
       <c r="M183" s="8"/>
@@ -9777,19 +9777,19 @@
         <v>1</v>
       </c>
       <c r="G184" s="7">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="H184" s="7">
-        <v>36000</v>
+        <v>19000</v>
       </c>
       <c r="I184" s="7">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="J184" s="7">
-        <v>38000</v>
+        <v>21000</v>
       </c>
       <c r="K184" s="7">
-        <v>39000</v>
+        <v>22000</v>
       </c>
       <c r="L184" s="8"/>
       <c r="M184" s="8"/>
@@ -9815,19 +9815,19 @@
         <v>1</v>
       </c>
       <c r="G185" s="7">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="H185" s="7">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="I185" s="7">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="J185" s="7">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="K185" s="7">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L185" s="8"/>
       <c r="M185" s="8"/>
@@ -9857,19 +9857,19 @@
         <v>1</v>
       </c>
       <c r="G186" s="7">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="H186" s="7">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="I186" s="7">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="J186" s="7">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="K186" s="7">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L186" s="8"/>
       <c r="M186" s="8"/>
@@ -9899,19 +9899,19 @@
         <v>1</v>
       </c>
       <c r="G187" s="7">
+        <v>15000</v>
+      </c>
+      <c r="H187" s="7">
+        <v>16000</v>
+      </c>
+      <c r="I187" s="7">
+        <v>17000</v>
+      </c>
+      <c r="J187" s="7">
         <v>18000</v>
       </c>
-      <c r="H187" s="7">
+      <c r="K187" s="7">
         <v>19000</v>
-      </c>
-      <c r="I187" s="7">
-        <v>20000</v>
-      </c>
-      <c r="J187" s="7">
-        <v>21000</v>
-      </c>
-      <c r="K187" s="7">
-        <v>22000</v>
       </c>
       <c r="L187" s="8"/>
       <c r="M187" s="8"/>
@@ -9937,19 +9937,19 @@
         <v>1</v>
       </c>
       <c r="G188" s="7">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="H188" s="7">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="I188" s="7">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="J188" s="7">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K188" s="7">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L188" s="8"/>
       <c r="M188" s="8"/>
@@ -9975,19 +9975,19 @@
         <v>1</v>
       </c>
       <c r="G189" s="7">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="H189" s="7">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="I189" s="7">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="J189" s="7">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="K189" s="7">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="L189" s="8"/>
       <c r="M189" s="8"/>
@@ -10017,19 +10017,19 @@
         <v>1</v>
       </c>
       <c r="G190" s="7">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="H190" s="7">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="I190" s="7">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="J190" s="7">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="K190" s="7">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="L190" s="8"/>
       <c r="M190" s="8"/>
@@ -10059,19 +10059,19 @@
         <v>1</v>
       </c>
       <c r="G191" s="7">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="H191" s="7">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="I191" s="7">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="J191" s="7">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K191" s="7">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="L191" s="8"/>
       <c r="M191" s="8"/>
@@ -10101,19 +10101,19 @@
         <v>1</v>
       </c>
       <c r="G192" s="7">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="H192" s="7">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="I192" s="7">
-        <v>29000</v>
+        <v>14000</v>
       </c>
       <c r="J192" s="7">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="K192" s="7">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="L192" s="8"/>
       <c r="M192" s="8"/>
@@ -10143,19 +10143,19 @@
         <v>1</v>
       </c>
       <c r="G193" s="7">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="H193" s="7">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="I193" s="7">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="J193" s="7">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="K193" s="7">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
@@ -10185,19 +10185,19 @@
         <v>1</v>
       </c>
       <c r="G194" s="7">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="H194" s="7">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="I194" s="7">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="J194" s="7">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K194" s="7">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L194" s="8"/>
       <c r="M194" s="8"/>
@@ -10223,19 +10223,19 @@
         <v>1</v>
       </c>
       <c r="G195" s="7">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="H195" s="7">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="I195" s="7">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="J195" s="7">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="K195" s="7">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="L195" s="8"/>
       <c r="M195" s="8"/>
@@ -10265,19 +10265,19 @@
         <v>1</v>
       </c>
       <c r="G196" s="7">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="H196" s="7">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="I196" s="7">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="J196" s="7">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="K196" s="7">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="L196" s="8"/>
       <c r="M196" s="8"/>
@@ -10307,19 +10307,19 @@
         <v>1</v>
       </c>
       <c r="G197" s="7">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="H197" s="7">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="I197" s="7">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="J197" s="7">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="K197" s="7">
-        <v>27000</v>
+        <v>39000</v>
       </c>
       <c r="L197" s="8"/>
       <c r="M197" s="8"/>
@@ -10349,19 +10349,19 @@
         <v>1</v>
       </c>
       <c r="G198" s="7">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="H198" s="7">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="I198" s="7">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="J198" s="7">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="K198" s="7">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="L198" s="8"/>
       <c r="M198" s="8"/>
@@ -10391,19 +10391,19 @@
         <v>1</v>
       </c>
       <c r="G199" s="7">
+        <v>21000</v>
+      </c>
+      <c r="H199" s="7">
+        <v>22000</v>
+      </c>
+      <c r="I199" s="7">
+        <v>23000</v>
+      </c>
+      <c r="J199" s="7">
+        <v>24000</v>
+      </c>
+      <c r="K199" s="7">
         <v>25000</v>
-      </c>
-      <c r="H199" s="7">
-        <v>26000</v>
-      </c>
-      <c r="I199" s="7">
-        <v>27000</v>
-      </c>
-      <c r="J199" s="7">
-        <v>28000</v>
-      </c>
-      <c r="K199" s="7">
-        <v>29000</v>
       </c>
       <c r="L199" s="8"/>
       <c r="M199" s="8"/>
@@ -10429,19 +10429,19 @@
         <v>1</v>
       </c>
       <c r="G200" s="7">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="H200" s="7">
-        <v>36000</v>
+        <v>19000</v>
       </c>
       <c r="I200" s="7">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="J200" s="7">
-        <v>38000</v>
+        <v>21000</v>
       </c>
       <c r="K200" s="7">
-        <v>39000</v>
+        <v>22000</v>
       </c>
       <c r="L200" s="8"/>
       <c r="M200" s="8"/>
@@ -10467,19 +10467,19 @@
         <v>1</v>
       </c>
       <c r="G201" s="7">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="H201" s="7">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="I201" s="7">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="J201" s="7">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="K201" s="7">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L201" s="8"/>
       <c r="M201" s="8"/>
@@ -10505,19 +10505,19 @@
         <v>1</v>
       </c>
       <c r="G202" s="7">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="H202" s="7">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="I202" s="7">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="J202" s="7">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="K202" s="7">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L202" s="8"/>
       <c r="M202" s="8"/>
@@ -10547,19 +10547,19 @@
         <v>1</v>
       </c>
       <c r="G203" s="7">
+        <v>15000</v>
+      </c>
+      <c r="H203" s="7">
+        <v>16000</v>
+      </c>
+      <c r="I203" s="7">
+        <v>17000</v>
+      </c>
+      <c r="J203" s="7">
         <v>18000</v>
       </c>
-      <c r="H203" s="7">
+      <c r="K203" s="7">
         <v>19000</v>
-      </c>
-      <c r="I203" s="7">
-        <v>20000</v>
-      </c>
-      <c r="J203" s="7">
-        <v>21000</v>
-      </c>
-      <c r="K203" s="7">
-        <v>22000</v>
       </c>
       <c r="L203" s="8"/>
       <c r="M203" s="8"/>
@@ -10589,19 +10589,19 @@
         <v>1</v>
       </c>
       <c r="G204" s="7">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="H204" s="7">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="I204" s="7">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="J204" s="7">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K204" s="7">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L204" s="8"/>
       <c r="M204" s="8"/>
@@ -10631,19 +10631,19 @@
         <v>1</v>
       </c>
       <c r="G205" s="7">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="H205" s="7">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="I205" s="7">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="J205" s="7">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="K205" s="7">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="L205" s="8"/>
       <c r="M205" s="8"/>
@@ -10669,19 +10669,19 @@
         <v>1</v>
       </c>
       <c r="G206" s="7">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="H206" s="7">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="I206" s="7">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="J206" s="7">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="K206" s="7">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="L206" s="8"/>
       <c r="M206" s="8"/>
@@ -10711,19 +10711,19 @@
         <v>1</v>
       </c>
       <c r="G207" s="7">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="H207" s="7">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="I207" s="7">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="J207" s="7">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K207" s="7">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="L207" s="8"/>
       <c r="M207" s="8"/>
@@ -10753,19 +10753,19 @@
         <v>1</v>
       </c>
       <c r="G208" s="7">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="H208" s="7">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="I208" s="7">
-        <v>29000</v>
+        <v>14000</v>
       </c>
       <c r="J208" s="7">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="K208" s="7">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="L208" s="8"/>
       <c r="M208" s="8"/>
@@ -10791,19 +10791,19 @@
         <v>1</v>
       </c>
       <c r="G209" s="7">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="H209" s="7">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="I209" s="7">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="J209" s="7">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="K209" s="7">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="L209" s="8"/>
       <c r="M209" s="8"/>
@@ -10829,19 +10829,19 @@
         <v>1</v>
       </c>
       <c r="G210" s="7">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="H210" s="7">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="I210" s="7">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="J210" s="7">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K210" s="7">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L210" s="8"/>
       <c r="M210" s="8"/>
@@ -10869,19 +10869,19 @@
         <v>1</v>
       </c>
       <c r="G211" s="7">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="H211" s="7">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="I211" s="7">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="J211" s="7">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="K211" s="7">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="L211" s="8"/>
       <c r="M211" s="8"/>
@@ -10907,19 +10907,19 @@
         <v>1</v>
       </c>
       <c r="G212" s="7">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="H212" s="7">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="I212" s="7">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="J212" s="7">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="K212" s="7">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="L212" s="8"/>
       <c r="M212" s="8"/>
@@ -10947,19 +10947,19 @@
         <v>1</v>
       </c>
       <c r="G213" s="7">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="H213" s="7">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="I213" s="7">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="J213" s="7">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="K213" s="7">
-        <v>27000</v>
+        <v>39000</v>
       </c>
       <c r="L213" s="8"/>
       <c r="M213" s="8"/>
@@ -10985,19 +10985,19 @@
         <v>1</v>
       </c>
       <c r="G214" s="7">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="H214" s="7">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="I214" s="7">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="J214" s="7">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="K214" s="7">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="L214" s="8"/>
       <c r="M214" s="8"/>
@@ -11023,19 +11023,19 @@
         <v>1</v>
       </c>
       <c r="G215" s="7">
+        <v>21000</v>
+      </c>
+      <c r="H215" s="7">
+        <v>22000</v>
+      </c>
+      <c r="I215" s="7">
+        <v>23000</v>
+      </c>
+      <c r="J215" s="7">
+        <v>24000</v>
+      </c>
+      <c r="K215" s="7">
         <v>25000</v>
-      </c>
-      <c r="H215" s="7">
-        <v>26000</v>
-      </c>
-      <c r="I215" s="7">
-        <v>27000</v>
-      </c>
-      <c r="J215" s="7">
-        <v>28000</v>
-      </c>
-      <c r="K215" s="7">
-        <v>29000</v>
       </c>
       <c r="L215" s="8"/>
       <c r="M215" s="8"/>
@@ -11061,19 +11061,19 @@
         <v>1</v>
       </c>
       <c r="G216" s="7">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="H216" s="7">
-        <v>36000</v>
+        <v>19000</v>
       </c>
       <c r="I216" s="7">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="J216" s="7">
-        <v>38000</v>
+        <v>21000</v>
       </c>
       <c r="K216" s="7">
-        <v>39000</v>
+        <v>22000</v>
       </c>
       <c r="L216" s="8"/>
       <c r="M216" s="8"/>
@@ -11099,19 +11099,19 @@
         <v>1</v>
       </c>
       <c r="G217" s="7">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="H217" s="7">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="I217" s="7">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="J217" s="7">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="K217" s="7">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L217" s="8"/>
       <c r="M217" s="8"/>
@@ -11137,19 +11137,19 @@
         <v>1</v>
       </c>
       <c r="G218" s="7">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="H218" s="7">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="I218" s="7">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="J218" s="7">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="K218" s="7">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L218" s="8"/>
       <c r="M218" s="8"/>
@@ -11177,19 +11177,19 @@
         <v>1</v>
       </c>
       <c r="G219" s="7">
+        <v>15000</v>
+      </c>
+      <c r="H219" s="7">
+        <v>16000</v>
+      </c>
+      <c r="I219" s="7">
+        <v>17000</v>
+      </c>
+      <c r="J219" s="7">
         <v>18000</v>
       </c>
-      <c r="H219" s="7">
+      <c r="K219" s="7">
         <v>19000</v>
-      </c>
-      <c r="I219" s="7">
-        <v>20000</v>
-      </c>
-      <c r="J219" s="7">
-        <v>21000</v>
-      </c>
-      <c r="K219" s="7">
-        <v>22000</v>
       </c>
       <c r="L219" s="8"/>
       <c r="M219" s="8"/>
@@ -11219,19 +11219,19 @@
         <v>1</v>
       </c>
       <c r="G220" s="7">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="H220" s="7">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="I220" s="7">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="J220" s="7">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K220" s="7">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L220" s="8"/>
       <c r="M220" s="8"/>
@@ -11257,19 +11257,19 @@
         <v>1</v>
       </c>
       <c r="G221" s="7">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="H221" s="7">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="I221" s="7">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="J221" s="7">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="K221" s="7">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="L221" s="8"/>
       <c r="M221" s="8"/>
@@ -11297,19 +11297,19 @@
         <v>1</v>
       </c>
       <c r="G222" s="7">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="H222" s="7">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="I222" s="7">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="J222" s="7">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="K222" s="7">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="L222" s="8"/>
       <c r="M222" s="8"/>
@@ -11339,19 +11339,19 @@
         <v>1</v>
       </c>
       <c r="G223" s="7">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="H223" s="7">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="I223" s="7">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="J223" s="7">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="K223" s="7">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L223" s="8"/>
       <c r="M223" s="8"/>

--- a/mysite/apps/mpemail/config/product.xlsx
+++ b/mysite/apps/mpemail/config/product.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djkim\Documents\work\FingerFree\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djkim\Documents\work\FingerFree\mpemail3\mysite\apps\mpemail\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575E74DB-8911-4297-BF31-C5350B0A449A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFAC273-AC2F-42C4-8F45-6996A6C3A620}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="564">
   <si>
     <t>품목코드</t>
   </si>
@@ -917,9 +917,6 @@
   </si>
   <si>
     <t>A0114-1</t>
-  </si>
-  <si>
-    <t>포단위</t>
   </si>
   <si>
     <t>A0115</t>
@@ -2303,7 +2300,7 @@
   <dimension ref="A1:R245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2329,28 +2326,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>555</v>
-      </c>
       <c r="H1" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -2361,19 +2358,19 @@
       <c r="E2" s="5"/>
       <c r="F2" s="13"/>
       <c r="G2" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -2384,7 +2381,9 @@
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
@@ -2422,7 +2421,9 @@
         <v>6</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
@@ -3846,7 +3847,9 @@
         <v>102</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
       <c r="E38" s="2">
         <v>36</v>
       </c>
@@ -3926,7 +3929,9 @@
         <v>107</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
       <c r="E40" s="2">
         <v>38</v>
       </c>
@@ -4006,7 +4011,9 @@
         <v>111</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2">
+        <v>4</v>
+      </c>
       <c r="E42" s="2">
         <v>40</v>
       </c>
@@ -4044,7 +4051,9 @@
         <v>113</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2">
+        <v>4</v>
+      </c>
       <c r="E43" s="2">
         <v>41</v>
       </c>
@@ -4082,7 +4091,9 @@
         <v>115</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2">
+        <v>4</v>
+      </c>
       <c r="E44" s="2">
         <v>42</v>
       </c>
@@ -4288,7 +4299,9 @@
         <v>129</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
       <c r="E49" s="2">
         <v>46</v>
       </c>
@@ -4368,7 +4381,9 @@
         <v>134</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2">
+        <v>4</v>
+      </c>
       <c r="E51" s="2">
         <v>48</v>
       </c>
@@ -4532,7 +4547,9 @@
         <v>148</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2">
+        <v>4</v>
+      </c>
       <c r="E55" s="2">
         <v>52</v>
       </c>
@@ -4654,7 +4671,9 @@
         <v>155</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2">
+        <v>4</v>
+      </c>
       <c r="E58" s="2">
         <v>55</v>
       </c>
@@ -4818,7 +4837,9 @@
         <v>166</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="2">
+        <v>4</v>
+      </c>
       <c r="E62" s="2">
         <v>59</v>
       </c>
@@ -4858,7 +4879,9 @@
       <c r="C63" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="2">
+        <v>4</v>
+      </c>
       <c r="E63" s="2">
         <v>60</v>
       </c>
@@ -4896,7 +4919,9 @@
         <v>171</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="D64" s="2">
+        <v>4</v>
+      </c>
       <c r="E64" s="2">
         <v>61</v>
       </c>
@@ -4976,7 +5001,9 @@
         <v>177</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2">
+        <v>4</v>
+      </c>
       <c r="E66" s="2">
         <v>63</v>
       </c>
@@ -5014,7 +5041,9 @@
         <v>179</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="D67" s="2">
+        <v>4</v>
+      </c>
       <c r="E67" s="2">
         <v>64</v>
       </c>
@@ -5052,7 +5081,9 @@
         <v>181</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2">
+        <v>4</v>
+      </c>
       <c r="E68" s="2">
         <v>65</v>
       </c>
@@ -5092,7 +5123,9 @@
       <c r="C69" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="D69" s="2">
+        <v>4</v>
+      </c>
       <c r="E69" s="2">
         <v>66</v>
       </c>
@@ -5130,7 +5163,9 @@
         <v>186</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="D70" s="2">
+        <v>4</v>
+      </c>
       <c r="E70" s="2">
         <v>67</v>
       </c>
@@ -5168,7 +5203,9 @@
         <v>188</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="D71" s="2">
+        <v>4</v>
+      </c>
       <c r="E71" s="2">
         <v>68</v>
       </c>
@@ -5332,7 +5369,9 @@
         <v>200</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2">
+        <v>4</v>
+      </c>
       <c r="E75" s="2">
         <v>72</v>
       </c>
@@ -5580,7 +5619,9 @@
         <v>215</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="D81" s="2">
+        <v>4</v>
+      </c>
       <c r="E81" s="2">
         <v>78</v>
       </c>
@@ -5786,7 +5827,9 @@
         <v>228</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="D86" s="2">
+        <v>4</v>
+      </c>
       <c r="E86" s="2">
         <v>83</v>
       </c>
@@ -5868,7 +5911,9 @@
       <c r="C88" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D88" s="2"/>
+      <c r="D88" s="2">
+        <v>4</v>
+      </c>
       <c r="E88" s="2">
         <v>85</v>
       </c>
@@ -5908,7 +5953,9 @@
       <c r="C89" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89" s="2">
+        <v>4</v>
+      </c>
       <c r="E89" s="2">
         <v>85</v>
       </c>
@@ -5948,7 +5995,9 @@
       <c r="C90" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D90" s="2"/>
+      <c r="D90" s="2">
+        <v>4</v>
+      </c>
       <c r="E90" s="2">
         <v>85</v>
       </c>
@@ -5988,7 +6037,9 @@
       <c r="C91" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="2">
+        <v>4</v>
+      </c>
       <c r="E91" s="2">
         <v>85</v>
       </c>
@@ -6863,7 +6914,9 @@
         <v>286</v>
       </c>
       <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="D112" s="2">
+        <v>4</v>
+      </c>
       <c r="E112" s="2">
         <v>105</v>
       </c>
@@ -6901,7 +6954,9 @@
         <v>288</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="D113" s="2">
+        <v>4</v>
+      </c>
       <c r="E113" s="2">
         <v>106</v>
       </c>
@@ -7023,7 +7078,9 @@
         <v>294</v>
       </c>
       <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="D116" s="2">
+        <v>4</v>
+      </c>
       <c r="E116" s="2">
         <v>108</v>
       </c>
@@ -7103,8 +7160,8 @@
         <v>296</v>
       </c>
       <c r="C118" s="2"/>
-      <c r="D118" s="2" t="s">
-        <v>298</v>
+      <c r="D118" s="2">
+        <v>100</v>
       </c>
       <c r="E118" s="2">
         <v>109</v>
@@ -7137,13 +7194,13 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>44</v>
@@ -7179,13 +7236,13 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>10</v>
@@ -7221,13 +7278,15 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="D121" s="2">
+        <v>4</v>
+      </c>
       <c r="E121" s="2">
         <v>112</v>
       </c>
@@ -7259,10 +7318,10 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>191</v>
@@ -7301,10 +7360,10 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
@@ -7343,16 +7402,16 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="E124" s="2">
         <v>115</v>
@@ -7385,13 +7444,15 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+      <c r="D125" s="2">
+        <v>4</v>
+      </c>
       <c r="E125" s="2">
         <v>116</v>
       </c>
@@ -7423,10 +7484,10 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>127</v>
@@ -7465,14 +7526,14 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C127" s="2"/>
-      <c r="D127" s="2" t="s">
-        <v>298</v>
+      <c r="D127" s="2">
+        <v>100</v>
       </c>
       <c r="E127" s="2">
         <v>118</v>
@@ -7505,13 +7566,13 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>48</v>
@@ -7547,13 +7608,13 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>44</v>
@@ -7589,10 +7650,10 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>151</v>
@@ -7631,10 +7692,10 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>60</v>
@@ -7673,13 +7734,13 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>10</v>
@@ -7715,10 +7776,10 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>60</v>
@@ -7757,16 +7818,16 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="E134" s="2">
         <v>125</v>
@@ -7799,13 +7860,15 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
+      <c r="D135" s="2">
+        <v>4</v>
+      </c>
       <c r="E135" s="2">
         <v>126</v>
       </c>
@@ -7837,13 +7900,13 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>10</v>
@@ -7879,13 +7942,15 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="D137" s="2">
+        <v>4</v>
+      </c>
       <c r="E137" s="2">
         <v>128</v>
       </c>
@@ -7917,13 +7982,15 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
+      <c r="D138" s="2">
+        <v>4</v>
+      </c>
       <c r="E138" s="2">
         <v>129</v>
       </c>
@@ -7955,13 +8022,15 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+      <c r="D139" s="2">
+        <v>4</v>
+      </c>
       <c r="E139" s="2">
         <v>130</v>
       </c>
@@ -7993,10 +8062,10 @@
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
@@ -8035,10 +8104,10 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>132</v>
@@ -8077,16 +8146,16 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="E142" s="2">
         <v>133</v>
@@ -8119,16 +8188,16 @@
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="E143" s="2">
         <v>134</v>
@@ -8161,15 +8230,17 @@
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D144" s="2"/>
+      <c r="D144" s="2">
+        <v>4</v>
+      </c>
       <c r="E144" s="2">
         <v>135</v>
       </c>
@@ -8201,13 +8272,13 @@
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>175</v>
@@ -8243,13 +8314,15 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+      <c r="D146" s="2">
+        <v>4</v>
+      </c>
       <c r="E146" s="2">
         <v>137</v>
       </c>
@@ -8281,13 +8354,15 @@
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+      <c r="D147" s="2">
+        <v>4</v>
+      </c>
       <c r="E147" s="2">
         <v>138</v>
       </c>
@@ -8319,13 +8394,13 @@
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>10</v>
@@ -8361,10 +8436,10 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>132</v>
@@ -8403,10 +8478,10 @@
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>127</v>
@@ -8445,14 +8520,14 @@
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C151" s="2"/>
-      <c r="D151" s="2" t="s">
-        <v>298</v>
+      <c r="D151" s="2">
+        <v>100</v>
       </c>
       <c r="E151" s="2">
         <v>142</v>
@@ -8485,13 +8560,15 @@
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+      <c r="D152" s="2">
+        <v>4</v>
+      </c>
       <c r="E152" s="2">
         <v>143</v>
       </c>
@@ -8523,10 +8600,10 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
@@ -8565,13 +8642,15 @@
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+      <c r="D154" s="2">
+        <v>4</v>
+      </c>
       <c r="E154" s="2">
         <v>145</v>
       </c>
@@ -8603,13 +8682,15 @@
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
+      <c r="D155" s="2">
+        <v>4</v>
+      </c>
       <c r="E155" s="2">
         <v>146</v>
       </c>
@@ -8641,13 +8722,15 @@
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+      <c r="D156" s="2">
+        <v>4</v>
+      </c>
       <c r="E156" s="2">
         <v>147</v>
       </c>
@@ -8679,13 +8762,13 @@
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>175</v>
@@ -8721,13 +8804,15 @@
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
+      <c r="D158" s="2">
+        <v>4</v>
+      </c>
       <c r="E158" s="2">
         <v>149</v>
       </c>
@@ -8759,13 +8844,15 @@
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
+      <c r="D159" s="2">
+        <v>4</v>
+      </c>
       <c r="E159" s="2">
         <v>150</v>
       </c>
@@ -8797,13 +8884,13 @@
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>22</v>
@@ -8839,16 +8926,16 @@
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="D161" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E161" s="2">
         <v>152</v>
@@ -8881,13 +8968,15 @@
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
+      <c r="D162" s="2">
+        <v>4</v>
+      </c>
       <c r="E162" s="2">
         <v>153</v>
       </c>
@@ -8919,13 +9008,13 @@
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="C163" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>61</v>
@@ -8961,10 +9050,10 @@
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>127</v>
@@ -9003,13 +9092,13 @@
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>61</v>
@@ -9045,16 +9134,16 @@
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E166" s="2">
         <v>157</v>
@@ -9087,13 +9176,13 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>14</v>
@@ -9129,10 +9218,10 @@
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>132</v>
@@ -9171,13 +9260,15 @@
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
+      <c r="D169" s="2">
+        <v>4</v>
+      </c>
       <c r="E169" s="2">
         <v>160</v>
       </c>
@@ -9209,10 +9300,10 @@
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>132</v>
@@ -9251,10 +9342,10 @@
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>33</v>
@@ -9293,13 +9384,15 @@
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
+      <c r="D172" s="2">
+        <v>4</v>
+      </c>
       <c r="E172" s="2">
         <v>163</v>
       </c>
@@ -9331,13 +9424,15 @@
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
+      <c r="D173" s="2">
+        <v>4</v>
+      </c>
       <c r="E173" s="2">
         <v>164</v>
       </c>
@@ -9369,14 +9464,14 @@
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="C174" s="2"/>
-      <c r="D174" s="2" t="s">
-        <v>298</v>
+      <c r="D174" s="2">
+        <v>4</v>
       </c>
       <c r="E174" s="2">
         <v>165</v>
@@ -9409,16 +9504,16 @@
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="C175" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="D175" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E175" s="2">
         <v>166</v>
@@ -9451,13 +9546,15 @@
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
+      <c r="D176" s="2">
+        <v>4</v>
+      </c>
       <c r="E176" s="2">
         <v>167</v>
       </c>
@@ -9489,16 +9586,16 @@
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="C177" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="D177" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E177" s="2">
         <v>168</v>
@@ -9531,13 +9628,15 @@
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
+      <c r="D178" s="2">
+        <v>4</v>
+      </c>
       <c r="E178" s="2">
         <v>169</v>
       </c>
@@ -9569,10 +9668,10 @@
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>75</v>
@@ -9611,13 +9710,15 @@
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
+      <c r="D180" s="2">
+        <v>4</v>
+      </c>
       <c r="E180" s="2">
         <v>171</v>
       </c>
@@ -9649,13 +9750,15 @@
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
+      <c r="D181" s="2">
+        <v>4</v>
+      </c>
       <c r="E181" s="2">
         <v>172</v>
       </c>
@@ -9687,13 +9790,15 @@
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
+      <c r="D182" s="2">
+        <v>4</v>
+      </c>
       <c r="E182" s="2">
         <v>173</v>
       </c>
@@ -9725,13 +9830,15 @@
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
+      <c r="D183" s="2">
+        <v>4</v>
+      </c>
       <c r="E183" s="2">
         <v>174</v>
       </c>
@@ -9763,13 +9870,15 @@
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
+      <c r="D184" s="2">
+        <v>4</v>
+      </c>
       <c r="E184" s="2">
         <v>175</v>
       </c>
@@ -9801,13 +9910,15 @@
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>456</v>
-      </c>
       <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
+      <c r="D185" s="2">
+        <v>4</v>
+      </c>
       <c r="E185" s="2">
         <v>176</v>
       </c>
@@ -9839,13 +9950,13 @@
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="C186" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>61</v>
@@ -9881,13 +9992,13 @@
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>10</v>
@@ -9923,13 +10034,15 @@
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
+      <c r="D188" s="2">
+        <v>4</v>
+      </c>
       <c r="E188" s="2">
         <v>179</v>
       </c>
@@ -9961,13 +10074,15 @@
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>465</v>
-      </c>
       <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
+      <c r="D189" s="2">
+        <v>4</v>
+      </c>
       <c r="E189" s="2">
         <v>180</v>
       </c>
@@ -9999,10 +10114,10 @@
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>75</v>
@@ -10041,13 +10156,13 @@
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>10</v>
@@ -10083,13 +10198,13 @@
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="C192" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>146</v>
@@ -10125,10 +10240,10 @@
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>132</v>
@@ -10167,10 +10282,10 @@
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>132</v>
@@ -10209,13 +10324,15 @@
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
+      <c r="D195" s="2">
+        <v>4</v>
+      </c>
       <c r="E195" s="2">
         <v>186</v>
       </c>
@@ -10247,13 +10364,13 @@
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>481</v>
-      </c>
       <c r="C196" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>22</v>
@@ -10289,16 +10406,16 @@
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="C197" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="D197" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="E197" s="2">
         <v>188</v>
@@ -10331,10 +10448,10 @@
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>132</v>
@@ -10373,10 +10490,10 @@
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>132</v>
@@ -10415,13 +10532,15 @@
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
+      <c r="D200" s="2">
+        <v>4</v>
+      </c>
       <c r="E200" s="2">
         <v>191</v>
       </c>
@@ -10453,13 +10572,15 @@
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
+      <c r="D201" s="2">
+        <v>4</v>
+      </c>
       <c r="E201" s="2">
         <v>192</v>
       </c>
@@ -10491,13 +10612,15 @@
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
+      <c r="D202" s="2">
+        <v>4</v>
+      </c>
       <c r="E202" s="2">
         <v>193</v>
       </c>
@@ -10529,13 +10652,13 @@
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="C203" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>44</v>
@@ -10571,13 +10694,13 @@
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="C204" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>175</v>
@@ -10613,13 +10736,13 @@
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="C205" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>61</v>
@@ -10655,13 +10778,15 @@
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>506</v>
-      </c>
       <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
+      <c r="D206" s="2">
+        <v>4</v>
+      </c>
       <c r="E206" s="2">
         <v>197</v>
       </c>
@@ -10693,13 +10818,13 @@
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="C207" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>14</v>
@@ -10735,10 +10860,10 @@
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>218</v>
@@ -10777,13 +10902,15 @@
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
+      <c r="D209" s="2">
+        <v>4</v>
+      </c>
       <c r="E209" s="2">
         <v>200</v>
       </c>
@@ -10815,13 +10942,15 @@
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
+      <c r="D210" s="2">
+        <v>4</v>
+      </c>
       <c r="E210" s="2">
         <v>201</v>
       </c>
@@ -10853,15 +10982,17 @@
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="C211" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D211" s="2"/>
+      <c r="D211" s="2">
+        <v>4</v>
+      </c>
       <c r="E211" s="2">
         <v>202</v>
       </c>
@@ -10893,13 +11024,15 @@
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>520</v>
-      </c>
       <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
+      <c r="D212" s="2">
+        <v>4</v>
+      </c>
       <c r="E212" s="2">
         <v>203</v>
       </c>
@@ -10931,15 +11064,17 @@
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="C213" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D213" s="2"/>
+      <c r="D213" s="2">
+        <v>4</v>
+      </c>
       <c r="E213" s="2">
         <v>204</v>
       </c>
@@ -10971,13 +11106,15 @@
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
+      <c r="D214" s="2">
+        <v>4</v>
+      </c>
       <c r="E214" s="2">
         <v>205</v>
       </c>
@@ -11009,13 +11146,15 @@
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
+      <c r="D215" s="2">
+        <v>4</v>
+      </c>
       <c r="E215" s="2">
         <v>206</v>
       </c>
@@ -11047,13 +11186,15 @@
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>529</v>
-      </c>
       <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
+      <c r="D216" s="2">
+        <v>4</v>
+      </c>
       <c r="E216" s="2">
         <v>207</v>
       </c>
@@ -11085,13 +11226,15 @@
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
+      <c r="D217" s="2">
+        <v>4</v>
+      </c>
       <c r="E217" s="2">
         <v>208</v>
       </c>
@@ -11123,13 +11266,15 @@
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>533</v>
-      </c>
       <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
+      <c r="D218" s="2">
+        <v>4</v>
+      </c>
       <c r="E218" s="2">
         <v>209</v>
       </c>
@@ -11161,14 +11306,14 @@
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E219" s="2">
         <v>210</v>
@@ -11201,13 +11346,13 @@
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="C220" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>119</v>
@@ -11243,13 +11388,15 @@
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
+      <c r="D221" s="2">
+        <v>4</v>
+      </c>
       <c r="E221" s="2">
         <v>212</v>
       </c>
@@ -11281,15 +11428,17 @@
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="C222" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D222" s="2"/>
+      <c r="D222" s="2">
+        <v>4</v>
+      </c>
       <c r="E222" s="2">
         <v>213</v>
       </c>
@@ -11321,16 +11470,16 @@
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="C223" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="D223" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E223" s="2">
         <v>214</v>
@@ -11363,13 +11512,15 @@
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>549</v>
-      </c>
       <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
+      <c r="D224" s="2">
+        <v>4</v>
+      </c>
       <c r="E224" s="2">
         <v>215</v>
       </c>
@@ -11401,13 +11552,15 @@
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C225" s="9"/>
-      <c r="D225" s="9"/>
+      <c r="D225" s="2">
+        <v>4</v>
+      </c>
       <c r="E225" s="9">
         <v>216</v>
       </c>
@@ -11439,13 +11592,15 @@
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A226" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C226" s="11"/>
-      <c r="D226" s="11"/>
+      <c r="D226" s="2">
+        <v>4</v>
+      </c>
       <c r="E226" s="11">
         <v>217</v>
       </c>
